--- a/Seccion 3 - Graficacion con Matplotlib/datasets/pex_data.xlsx
+++ b/Seccion 3 - Graficacion con Matplotlib/datasets/pex_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipequezada/Documents/Documentos - MacBook Pro de Felipe - 1/Clases Computer Science/udd_data_analytics_lectures/seccion_03_matplotlib/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipequezada/Documents/Documentos - MacBook Pro de Felipe - 1/Clases Computer Science/udd_data_analytics_lectures/Seccion 3 - Graficacion con Matplotlib/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BABD9A7B-3946-EC4A-A0C9-C31F7D6166FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF75C53-3C1F-4341-9802-290C65643A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15520" yWindow="4500" windowWidth="27640" windowHeight="16940" xr2:uid="{F7CA13B7-22DA-4648-B004-79A64246DBD5}"/>
   </bookViews>
@@ -17,11 +17,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$329</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$E$2:$E$329</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$E$2:$E$329</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$E$2:$E$329</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$E$2:$E$329</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -55,994 +50,994 @@
     <t>PEX</t>
   </si>
   <si>
-    <t>0131H</t>
-  </si>
-  <si>
-    <t>0132F</t>
-  </si>
-  <si>
-    <t>0132H</t>
-  </si>
-  <si>
-    <t>0133F</t>
-  </si>
-  <si>
-    <t>0133H</t>
-  </si>
-  <si>
-    <t>0134F</t>
-  </si>
-  <si>
-    <t>0134H</t>
-  </si>
-  <si>
-    <t>0135F</t>
-  </si>
-  <si>
-    <t>0135H</t>
-  </si>
-  <si>
-    <t>0136F</t>
-  </si>
-  <si>
-    <t>0136H</t>
-  </si>
-  <si>
-    <t>0137F</t>
-  </si>
-  <si>
-    <t>0137H</t>
-  </si>
-  <si>
-    <t>0138F</t>
-  </si>
-  <si>
-    <t>0138H</t>
-  </si>
-  <si>
-    <t>0139F</t>
-  </si>
-  <si>
-    <t>0139H</t>
-  </si>
-  <si>
-    <t>0140F</t>
-  </si>
-  <si>
-    <t>0140H</t>
-  </si>
-  <si>
-    <t>0229H</t>
-  </si>
-  <si>
-    <t>0230F</t>
-  </si>
-  <si>
-    <t>0230H</t>
-  </si>
-  <si>
-    <t>0231F</t>
-  </si>
-  <si>
-    <t>0231H</t>
-  </si>
-  <si>
-    <t>0232F</t>
-  </si>
-  <si>
-    <t>0232H</t>
-  </si>
-  <si>
-    <t>0233F</t>
-  </si>
-  <si>
-    <t>0233H</t>
-  </si>
-  <si>
-    <t>0234F</t>
-  </si>
-  <si>
-    <t>0234H</t>
-  </si>
-  <si>
-    <t>0235F</t>
-  </si>
-  <si>
-    <t>0235H</t>
-  </si>
-  <si>
-    <t>0236F</t>
-  </si>
-  <si>
-    <t>0236H</t>
-  </si>
-  <si>
-    <t>0237F</t>
-  </si>
-  <si>
-    <t>0237H</t>
-  </si>
-  <si>
-    <t>0238F</t>
-  </si>
-  <si>
-    <t>0238H</t>
-  </si>
-  <si>
-    <t>0239F</t>
-  </si>
-  <si>
-    <t>0239H</t>
-  </si>
-  <si>
-    <t>0240F</t>
-  </si>
-  <si>
-    <t>0240H</t>
-  </si>
-  <si>
-    <t>0327H</t>
-  </si>
-  <si>
-    <t>0328F</t>
-  </si>
-  <si>
-    <t>0328H</t>
-  </si>
-  <si>
-    <t>0329F</t>
-  </si>
-  <si>
-    <t>0329H</t>
-  </si>
-  <si>
-    <t>0330F</t>
-  </si>
-  <si>
-    <t>0330H</t>
-  </si>
-  <si>
-    <t>0331F</t>
-  </si>
-  <si>
-    <t>0331H</t>
-  </si>
-  <si>
-    <t>0332F</t>
-  </si>
-  <si>
-    <t>0332H</t>
-  </si>
-  <si>
-    <t>0333F</t>
-  </si>
-  <si>
-    <t>0333H</t>
-  </si>
-  <si>
-    <t>0334F</t>
-  </si>
-  <si>
-    <t>0334H</t>
-  </si>
-  <si>
-    <t>0335F</t>
-  </si>
-  <si>
-    <t>0335H</t>
-  </si>
-  <si>
-    <t>0336F</t>
-  </si>
-  <si>
-    <t>0336H</t>
-  </si>
-  <si>
-    <t>0337F</t>
-  </si>
-  <si>
-    <t>0337H</t>
-  </si>
-  <si>
-    <t>0338F</t>
-  </si>
-  <si>
-    <t>0338H</t>
-  </si>
-  <si>
-    <t>0339F</t>
-  </si>
-  <si>
-    <t>0339H</t>
-  </si>
-  <si>
-    <t>0340F</t>
-  </si>
-  <si>
-    <t>0425H</t>
-  </si>
-  <si>
-    <t>0426F</t>
-  </si>
-  <si>
-    <t>0426H</t>
-  </si>
-  <si>
-    <t>0427F</t>
-  </si>
-  <si>
-    <t>0427H</t>
-  </si>
-  <si>
-    <t>0428F</t>
-  </si>
-  <si>
-    <t>0428H</t>
-  </si>
-  <si>
-    <t>0429F</t>
-  </si>
-  <si>
-    <t>0429H</t>
-  </si>
-  <si>
-    <t>0430F</t>
-  </si>
-  <si>
-    <t>0430H</t>
-  </si>
-  <si>
-    <t>0431F</t>
-  </si>
-  <si>
-    <t>0431H</t>
-  </si>
-  <si>
-    <t>0432F</t>
-  </si>
-  <si>
-    <t>0432H</t>
-  </si>
-  <si>
-    <t>0433F</t>
-  </si>
-  <si>
-    <t>0433H</t>
-  </si>
-  <si>
-    <t>0434F</t>
-  </si>
-  <si>
-    <t>0434H</t>
-  </si>
-  <si>
-    <t>0435F</t>
-  </si>
-  <si>
-    <t>0435H</t>
-  </si>
-  <si>
-    <t>0436F</t>
-  </si>
-  <si>
-    <t>0436H</t>
-  </si>
-  <si>
-    <t>0437F</t>
-  </si>
-  <si>
-    <t>0437H</t>
-  </si>
-  <si>
-    <t>0438F</t>
-  </si>
-  <si>
-    <t>0438H</t>
-  </si>
-  <si>
-    <t>0439F</t>
-  </si>
-  <si>
-    <t>0523H</t>
-  </si>
-  <si>
-    <t>0524F</t>
-  </si>
-  <si>
-    <t>0524H</t>
-  </si>
-  <si>
-    <t>0525F</t>
-  </si>
-  <si>
-    <t>0525H</t>
-  </si>
-  <si>
-    <t>0526F</t>
-  </si>
-  <si>
-    <t>0526H</t>
-  </si>
-  <si>
-    <t>0527F</t>
-  </si>
-  <si>
-    <t>0527H</t>
-  </si>
-  <si>
-    <t>0528F</t>
-  </si>
-  <si>
-    <t>0528H</t>
-  </si>
-  <si>
-    <t>0529F</t>
-  </si>
-  <si>
-    <t>0529H</t>
-  </si>
-  <si>
-    <t>0530F</t>
-  </si>
-  <si>
-    <t>0530H</t>
-  </si>
-  <si>
-    <t>0531F</t>
-  </si>
-  <si>
-    <t>0531H</t>
-  </si>
-  <si>
-    <t>0532F</t>
-  </si>
-  <si>
-    <t>0532H</t>
-  </si>
-  <si>
-    <t>0533F</t>
-  </si>
-  <si>
-    <t>0533H</t>
-  </si>
-  <si>
-    <t>0534F</t>
-  </si>
-  <si>
-    <t>0534H</t>
-  </si>
-  <si>
-    <t>0535F</t>
-  </si>
-  <si>
-    <t>0535H</t>
-  </si>
-  <si>
-    <t>0536F</t>
-  </si>
-  <si>
-    <t>0536H</t>
-  </si>
-  <si>
-    <t>0537F</t>
-  </si>
-  <si>
-    <t>0537H</t>
-  </si>
-  <si>
-    <t>0538F</t>
-  </si>
-  <si>
-    <t>0538H</t>
-  </si>
-  <si>
-    <t>0621H</t>
-  </si>
-  <si>
-    <t>0622F</t>
-  </si>
-  <si>
-    <t>0622H</t>
-  </si>
-  <si>
-    <t>0623F</t>
-  </si>
-  <si>
-    <t>0623H</t>
-  </si>
-  <si>
-    <t>0624F</t>
-  </si>
-  <si>
-    <t>0624H</t>
-  </si>
-  <si>
-    <t>0625F</t>
-  </si>
-  <si>
-    <t>0625H</t>
-  </si>
-  <si>
-    <t>0626F</t>
-  </si>
-  <si>
-    <t>0626H</t>
-  </si>
-  <si>
-    <t>0627F</t>
-  </si>
-  <si>
-    <t>0627H</t>
-  </si>
-  <si>
-    <t>0628F</t>
-  </si>
-  <si>
-    <t>0628H</t>
-  </si>
-  <si>
-    <t>0629F</t>
-  </si>
-  <si>
-    <t>0629H</t>
-  </si>
-  <si>
-    <t>0630F</t>
-  </si>
-  <si>
-    <t>0631F</t>
-  </si>
-  <si>
-    <t>0631H</t>
-  </si>
-  <si>
-    <t>0632F</t>
-  </si>
-  <si>
-    <t>0632H</t>
-  </si>
-  <si>
-    <t>0633F</t>
-  </si>
-  <si>
-    <t>0633H</t>
-  </si>
-  <si>
-    <t>0634F</t>
-  </si>
-  <si>
-    <t>0634H</t>
-  </si>
-  <si>
-    <t>0635F</t>
-  </si>
-  <si>
-    <t>0635H</t>
-  </si>
-  <si>
-    <t>0636F</t>
-  </si>
-  <si>
-    <t>0636H</t>
-  </si>
-  <si>
-    <t>0637F</t>
-  </si>
-  <si>
-    <t>0637H</t>
-  </si>
-  <si>
-    <t>0638F</t>
-  </si>
-  <si>
-    <t>06N07H</t>
-  </si>
-  <si>
-    <t>06N08H</t>
-  </si>
-  <si>
-    <t>06N09H</t>
-  </si>
-  <si>
-    <t>06N10H</t>
-  </si>
-  <si>
-    <t>06N11H</t>
-  </si>
-  <si>
-    <t>06N12H</t>
-  </si>
-  <si>
-    <t>06N13H</t>
-  </si>
-  <si>
-    <t>06N14H</t>
-  </si>
-  <si>
-    <t>06N15H</t>
-  </si>
-  <si>
-    <t>0719H</t>
-  </si>
-  <si>
-    <t>0720F</t>
-  </si>
-  <si>
-    <t>0720H</t>
-  </si>
-  <si>
-    <t>0721F</t>
-  </si>
-  <si>
-    <t>0721H</t>
-  </si>
-  <si>
-    <t>0722F</t>
-  </si>
-  <si>
-    <t>0722H</t>
-  </si>
-  <si>
-    <t>0723F</t>
-  </si>
-  <si>
-    <t>0723H</t>
-  </si>
-  <si>
-    <t>0724F</t>
-  </si>
-  <si>
-    <t>0724H</t>
-  </si>
-  <si>
-    <t>0725F</t>
-  </si>
-  <si>
-    <t>0725H</t>
-  </si>
-  <si>
-    <t>0726F</t>
-  </si>
-  <si>
-    <t>0726H</t>
-  </si>
-  <si>
-    <t>0727F</t>
-  </si>
-  <si>
-    <t>0727H</t>
-  </si>
-  <si>
-    <t>0728F</t>
-  </si>
-  <si>
-    <t>0729F</t>
-  </si>
-  <si>
-    <t>0729H</t>
-  </si>
-  <si>
-    <t>0730H</t>
-  </si>
-  <si>
-    <t>0731F</t>
-  </si>
-  <si>
-    <t>0731H</t>
-  </si>
-  <si>
-    <t>0732F</t>
-  </si>
-  <si>
-    <t>0732H</t>
-  </si>
-  <si>
-    <t>0733F</t>
-  </si>
-  <si>
-    <t>0733H</t>
-  </si>
-  <si>
-    <t>0734F</t>
-  </si>
-  <si>
-    <t>0734H</t>
-  </si>
-  <si>
-    <t>0735F</t>
-  </si>
-  <si>
-    <t>0735H</t>
-  </si>
-  <si>
-    <t>0736F</t>
-  </si>
-  <si>
-    <t>0736H</t>
-  </si>
-  <si>
-    <t>0737F</t>
-  </si>
-  <si>
-    <t>0738F</t>
-  </si>
-  <si>
-    <t>07N08H</t>
-  </si>
-  <si>
-    <t>07N09F</t>
-  </si>
-  <si>
-    <t>07N09H</t>
-  </si>
-  <si>
-    <t>07N10F</t>
-  </si>
-  <si>
-    <t>07N10H</t>
-  </si>
-  <si>
-    <t>07N11F</t>
-  </si>
-  <si>
-    <t>07N11H</t>
-  </si>
-  <si>
-    <t>07N12F</t>
-  </si>
-  <si>
-    <t>07N12H</t>
-  </si>
-  <si>
-    <t>07N13F</t>
-  </si>
-  <si>
-    <t>07N13H</t>
-  </si>
-  <si>
-    <t>07N14F</t>
-  </si>
-  <si>
-    <t>07N14H</t>
-  </si>
-  <si>
-    <t>07N15F</t>
-  </si>
-  <si>
-    <t>07N15H</t>
-  </si>
-  <si>
-    <t>07N16H</t>
-  </si>
-  <si>
-    <t>07N17H</t>
-  </si>
-  <si>
-    <t>07N18H</t>
-  </si>
-  <si>
-    <t>0817H</t>
-  </si>
-  <si>
-    <t>0818F</t>
-  </si>
-  <si>
-    <t>0818H</t>
-  </si>
-  <si>
-    <t>0819F</t>
-  </si>
-  <si>
-    <t>0819H</t>
-  </si>
-  <si>
-    <t>0820F</t>
-  </si>
-  <si>
-    <t>0820H</t>
-  </si>
-  <si>
-    <t>0821F</t>
-  </si>
-  <si>
-    <t>0821H</t>
-  </si>
-  <si>
-    <t>0822F</t>
-  </si>
-  <si>
-    <t>0822H</t>
-  </si>
-  <si>
-    <t>0823F</t>
-  </si>
-  <si>
-    <t>0823H</t>
-  </si>
-  <si>
-    <t>0824F</t>
-  </si>
-  <si>
-    <t>0824H</t>
-  </si>
-  <si>
-    <t>0825F</t>
-  </si>
-  <si>
-    <t>0825H</t>
-  </si>
-  <si>
-    <t>0826F</t>
-  </si>
-  <si>
-    <t>0827F</t>
-  </si>
-  <si>
-    <t>0827H</t>
-  </si>
-  <si>
-    <t>0828H</t>
-  </si>
-  <si>
-    <t>0829F</t>
-  </si>
-  <si>
-    <t>0829H</t>
-  </si>
-  <si>
-    <t>0830F</t>
-  </si>
-  <si>
-    <t>0830H</t>
-  </si>
-  <si>
-    <t>0831F</t>
-  </si>
-  <si>
-    <t>0831H</t>
-  </si>
-  <si>
-    <t>0832F</t>
-  </si>
-  <si>
-    <t>0832H</t>
-  </si>
-  <si>
-    <t>0833F</t>
-  </si>
-  <si>
-    <t>0833H</t>
-  </si>
-  <si>
-    <t>0834F</t>
-  </si>
-  <si>
-    <t>0834H</t>
-  </si>
-  <si>
-    <t>0836F</t>
-  </si>
-  <si>
-    <t>08N08H</t>
-  </si>
-  <si>
-    <t>08N09F</t>
-  </si>
-  <si>
-    <t>08N09H</t>
-  </si>
-  <si>
-    <t>08N10F</t>
-  </si>
-  <si>
-    <t>08N10H</t>
-  </si>
-  <si>
-    <t>08N11F</t>
-  </si>
-  <si>
-    <t>08N11H</t>
-  </si>
-  <si>
-    <t>08N12F</t>
-  </si>
-  <si>
-    <t>08N12H</t>
-  </si>
-  <si>
-    <t>08N13F</t>
-  </si>
-  <si>
-    <t>08N13H</t>
-  </si>
-  <si>
-    <t>08N14F</t>
-  </si>
-  <si>
-    <t>08N14H</t>
-  </si>
-  <si>
-    <t>08N15F</t>
-  </si>
-  <si>
-    <t>08N15H</t>
-  </si>
-  <si>
-    <t>08N16F</t>
-  </si>
-  <si>
-    <t>08N16H</t>
-  </si>
-  <si>
-    <t>08N17F</t>
-  </si>
-  <si>
-    <t>08N17H</t>
-  </si>
-  <si>
-    <t>08N18F</t>
-  </si>
-  <si>
-    <t>08N18H</t>
-  </si>
-  <si>
-    <t>08N19H</t>
-  </si>
-  <si>
-    <t>0915H</t>
-  </si>
-  <si>
-    <t>0916F</t>
-  </si>
-  <si>
-    <t>0916H</t>
-  </si>
-  <si>
-    <t>0917F</t>
-  </si>
-  <si>
-    <t>0917H</t>
-  </si>
-  <si>
-    <t>0918F</t>
-  </si>
-  <si>
-    <t>0918H</t>
-  </si>
-  <si>
-    <t>0919F</t>
-  </si>
-  <si>
-    <t>0919H</t>
-  </si>
-  <si>
-    <t>0920F</t>
-  </si>
-  <si>
-    <t>0920H</t>
-  </si>
-  <si>
-    <t>0921F</t>
-  </si>
-  <si>
-    <t>0921H</t>
-  </si>
-  <si>
-    <t>0922F</t>
-  </si>
-  <si>
-    <t>0922H</t>
-  </si>
-  <si>
-    <t>0923F</t>
-  </si>
-  <si>
-    <t>0923H</t>
-  </si>
-  <si>
-    <t>0924F</t>
-  </si>
-  <si>
-    <t>0925F</t>
-  </si>
-  <si>
-    <t>0925H</t>
-  </si>
-  <si>
-    <t>0926F</t>
-  </si>
-  <si>
-    <t>0926H</t>
-  </si>
-  <si>
-    <t>0927H</t>
-  </si>
-  <si>
-    <t>0928F</t>
-  </si>
-  <si>
-    <t>0928H</t>
-  </si>
-  <si>
-    <t>0929F</t>
-  </si>
-  <si>
-    <t>0929H</t>
-  </si>
-  <si>
-    <t>0930F</t>
-  </si>
-  <si>
-    <t>0930H</t>
-  </si>
-  <si>
-    <t>0931F</t>
-  </si>
-  <si>
-    <t>0931H</t>
-  </si>
-  <si>
-    <t>0932F</t>
-  </si>
-  <si>
-    <t>0932H</t>
-  </si>
-  <si>
-    <t>0933F</t>
-  </si>
-  <si>
-    <t>0934F</t>
-  </si>
-  <si>
-    <t>09N08H</t>
-  </si>
-  <si>
-    <t>09N09F</t>
-  </si>
-  <si>
-    <t>09N09H</t>
-  </si>
-  <si>
-    <t>09N10F</t>
-  </si>
-  <si>
-    <t>09N10H</t>
-  </si>
-  <si>
-    <t>09N11F</t>
-  </si>
-  <si>
-    <t>09N11H</t>
-  </si>
-  <si>
-    <t>09N12F</t>
-  </si>
-  <si>
-    <t>09N12H</t>
-  </si>
-  <si>
-    <t>09N13F</t>
-  </si>
-  <si>
-    <t>09N13H</t>
-  </si>
-  <si>
-    <t>09N14F</t>
-  </si>
-  <si>
-    <t>09N14H</t>
-  </si>
-  <si>
-    <t>09N15F</t>
-  </si>
-  <si>
-    <t>09N15H</t>
-  </si>
-  <si>
     <t>ALT. EXTRAIBLE</t>
   </si>
   <si>
     <t>PRODUCCION</t>
+  </si>
+  <si>
+    <t>33131H</t>
+  </si>
+  <si>
+    <t>33132F</t>
+  </si>
+  <si>
+    <t>33132H</t>
+  </si>
+  <si>
+    <t>33133F</t>
+  </si>
+  <si>
+    <t>33133H</t>
+  </si>
+  <si>
+    <t>33134F</t>
+  </si>
+  <si>
+    <t>33134H</t>
+  </si>
+  <si>
+    <t>33135F</t>
+  </si>
+  <si>
+    <t>33135H</t>
+  </si>
+  <si>
+    <t>33136F</t>
+  </si>
+  <si>
+    <t>33136H</t>
+  </si>
+  <si>
+    <t>33137F</t>
+  </si>
+  <si>
+    <t>33137H</t>
+  </si>
+  <si>
+    <t>33138F</t>
+  </si>
+  <si>
+    <t>33138H</t>
+  </si>
+  <si>
+    <t>33139F</t>
+  </si>
+  <si>
+    <t>33139H</t>
+  </si>
+  <si>
+    <t>331433F</t>
+  </si>
+  <si>
+    <t>331433H</t>
+  </si>
+  <si>
+    <t>33229H</t>
+  </si>
+  <si>
+    <t>332333F</t>
+  </si>
+  <si>
+    <t>332333H</t>
+  </si>
+  <si>
+    <t>33231F</t>
+  </si>
+  <si>
+    <t>33231H</t>
+  </si>
+  <si>
+    <t>33232F</t>
+  </si>
+  <si>
+    <t>33232H</t>
+  </si>
+  <si>
+    <t>33233F</t>
+  </si>
+  <si>
+    <t>33233H</t>
+  </si>
+  <si>
+    <t>33234F</t>
+  </si>
+  <si>
+    <t>33234H</t>
+  </si>
+  <si>
+    <t>33235F</t>
+  </si>
+  <si>
+    <t>33235H</t>
+  </si>
+  <si>
+    <t>33236F</t>
+  </si>
+  <si>
+    <t>33236H</t>
+  </si>
+  <si>
+    <t>33237F</t>
+  </si>
+  <si>
+    <t>33237H</t>
+  </si>
+  <si>
+    <t>33238F</t>
+  </si>
+  <si>
+    <t>33238H</t>
+  </si>
+  <si>
+    <t>33239F</t>
+  </si>
+  <si>
+    <t>33239H</t>
+  </si>
+  <si>
+    <t>332433F</t>
+  </si>
+  <si>
+    <t>332433H</t>
+  </si>
+  <si>
+    <t>33327H</t>
+  </si>
+  <si>
+    <t>33328F</t>
+  </si>
+  <si>
+    <t>33328H</t>
+  </si>
+  <si>
+    <t>33329F</t>
+  </si>
+  <si>
+    <t>33329H</t>
+  </si>
+  <si>
+    <t>333333F</t>
+  </si>
+  <si>
+    <t>333333H</t>
+  </si>
+  <si>
+    <t>33331F</t>
+  </si>
+  <si>
+    <t>33331H</t>
+  </si>
+  <si>
+    <t>33332F</t>
+  </si>
+  <si>
+    <t>33332H</t>
+  </si>
+  <si>
+    <t>33333F</t>
+  </si>
+  <si>
+    <t>33333H</t>
+  </si>
+  <si>
+    <t>33334F</t>
+  </si>
+  <si>
+    <t>33334H</t>
+  </si>
+  <si>
+    <t>33335F</t>
+  </si>
+  <si>
+    <t>33335H</t>
+  </si>
+  <si>
+    <t>33336F</t>
+  </si>
+  <si>
+    <t>33336H</t>
+  </si>
+  <si>
+    <t>33337F</t>
+  </si>
+  <si>
+    <t>33337H</t>
+  </si>
+  <si>
+    <t>33338F</t>
+  </si>
+  <si>
+    <t>33338H</t>
+  </si>
+  <si>
+    <t>33339F</t>
+  </si>
+  <si>
+    <t>33339H</t>
+  </si>
+  <si>
+    <t>333433F</t>
+  </si>
+  <si>
+    <t>33425H</t>
+  </si>
+  <si>
+    <t>33426F</t>
+  </si>
+  <si>
+    <t>33426H</t>
+  </si>
+  <si>
+    <t>33427F</t>
+  </si>
+  <si>
+    <t>33427H</t>
+  </si>
+  <si>
+    <t>33428F</t>
+  </si>
+  <si>
+    <t>33428H</t>
+  </si>
+  <si>
+    <t>33429F</t>
+  </si>
+  <si>
+    <t>33429H</t>
+  </si>
+  <si>
+    <t>334333F</t>
+  </si>
+  <si>
+    <t>334333H</t>
+  </si>
+  <si>
+    <t>33431F</t>
+  </si>
+  <si>
+    <t>33431H</t>
+  </si>
+  <si>
+    <t>33432F</t>
+  </si>
+  <si>
+    <t>33432H</t>
+  </si>
+  <si>
+    <t>33433F</t>
+  </si>
+  <si>
+    <t>33433H</t>
+  </si>
+  <si>
+    <t>33434F</t>
+  </si>
+  <si>
+    <t>33434H</t>
+  </si>
+  <si>
+    <t>33435F</t>
+  </si>
+  <si>
+    <t>33435H</t>
+  </si>
+  <si>
+    <t>33436F</t>
+  </si>
+  <si>
+    <t>33436H</t>
+  </si>
+  <si>
+    <t>33437F</t>
+  </si>
+  <si>
+    <t>33437H</t>
+  </si>
+  <si>
+    <t>33438F</t>
+  </si>
+  <si>
+    <t>33438H</t>
+  </si>
+  <si>
+    <t>33439F</t>
+  </si>
+  <si>
+    <t>33523H</t>
+  </si>
+  <si>
+    <t>33524F</t>
+  </si>
+  <si>
+    <t>33524H</t>
+  </si>
+  <si>
+    <t>33525F</t>
+  </si>
+  <si>
+    <t>33525H</t>
+  </si>
+  <si>
+    <t>33526F</t>
+  </si>
+  <si>
+    <t>33526H</t>
+  </si>
+  <si>
+    <t>33527F</t>
+  </si>
+  <si>
+    <t>33527H</t>
+  </si>
+  <si>
+    <t>33528F</t>
+  </si>
+  <si>
+    <t>33528H</t>
+  </si>
+  <si>
+    <t>33529F</t>
+  </si>
+  <si>
+    <t>33529H</t>
+  </si>
+  <si>
+    <t>335333F</t>
+  </si>
+  <si>
+    <t>335333H</t>
+  </si>
+  <si>
+    <t>33531F</t>
+  </si>
+  <si>
+    <t>33531H</t>
+  </si>
+  <si>
+    <t>33532F</t>
+  </si>
+  <si>
+    <t>33532H</t>
+  </si>
+  <si>
+    <t>33533F</t>
+  </si>
+  <si>
+    <t>33533H</t>
+  </si>
+  <si>
+    <t>33534F</t>
+  </si>
+  <si>
+    <t>33534H</t>
+  </si>
+  <si>
+    <t>33535F</t>
+  </si>
+  <si>
+    <t>33535H</t>
+  </si>
+  <si>
+    <t>33536F</t>
+  </si>
+  <si>
+    <t>33536H</t>
+  </si>
+  <si>
+    <t>33537F</t>
+  </si>
+  <si>
+    <t>33537H</t>
+  </si>
+  <si>
+    <t>33538F</t>
+  </si>
+  <si>
+    <t>33538H</t>
+  </si>
+  <si>
+    <t>33621H</t>
+  </si>
+  <si>
+    <t>33622F</t>
+  </si>
+  <si>
+    <t>33622H</t>
+  </si>
+  <si>
+    <t>33623F</t>
+  </si>
+  <si>
+    <t>33623H</t>
+  </si>
+  <si>
+    <t>33624F</t>
+  </si>
+  <si>
+    <t>33624H</t>
+  </si>
+  <si>
+    <t>33625F</t>
+  </si>
+  <si>
+    <t>33625H</t>
+  </si>
+  <si>
+    <t>33626F</t>
+  </si>
+  <si>
+    <t>33626H</t>
+  </si>
+  <si>
+    <t>33627F</t>
+  </si>
+  <si>
+    <t>33627H</t>
+  </si>
+  <si>
+    <t>33628F</t>
+  </si>
+  <si>
+    <t>33628H</t>
+  </si>
+  <si>
+    <t>33629F</t>
+  </si>
+  <si>
+    <t>33629H</t>
+  </si>
+  <si>
+    <t>336333F</t>
+  </si>
+  <si>
+    <t>33631F</t>
+  </si>
+  <si>
+    <t>33631H</t>
+  </si>
+  <si>
+    <t>33632F</t>
+  </si>
+  <si>
+    <t>33632H</t>
+  </si>
+  <si>
+    <t>33633F</t>
+  </si>
+  <si>
+    <t>33633H</t>
+  </si>
+  <si>
+    <t>33634F</t>
+  </si>
+  <si>
+    <t>33634H</t>
+  </si>
+  <si>
+    <t>33635F</t>
+  </si>
+  <si>
+    <t>33635H</t>
+  </si>
+  <si>
+    <t>33636F</t>
+  </si>
+  <si>
+    <t>33636H</t>
+  </si>
+  <si>
+    <t>33637F</t>
+  </si>
+  <si>
+    <t>33637H</t>
+  </si>
+  <si>
+    <t>33638F</t>
+  </si>
+  <si>
+    <t>336N337H</t>
+  </si>
+  <si>
+    <t>336N338H</t>
+  </si>
+  <si>
+    <t>336N339H</t>
+  </si>
+  <si>
+    <t>336N133H</t>
+  </si>
+  <si>
+    <t>336N11H</t>
+  </si>
+  <si>
+    <t>336N12H</t>
+  </si>
+  <si>
+    <t>336N13H</t>
+  </si>
+  <si>
+    <t>336N14H</t>
+  </si>
+  <si>
+    <t>336N15H</t>
+  </si>
+  <si>
+    <t>33719H</t>
+  </si>
+  <si>
+    <t>337233F</t>
+  </si>
+  <si>
+    <t>337233H</t>
+  </si>
+  <si>
+    <t>33721F</t>
+  </si>
+  <si>
+    <t>33721H</t>
+  </si>
+  <si>
+    <t>33722F</t>
+  </si>
+  <si>
+    <t>33722H</t>
+  </si>
+  <si>
+    <t>33723F</t>
+  </si>
+  <si>
+    <t>33723H</t>
+  </si>
+  <si>
+    <t>33724F</t>
+  </si>
+  <si>
+    <t>33724H</t>
+  </si>
+  <si>
+    <t>33725F</t>
+  </si>
+  <si>
+    <t>33725H</t>
+  </si>
+  <si>
+    <t>33726F</t>
+  </si>
+  <si>
+    <t>33726H</t>
+  </si>
+  <si>
+    <t>33727F</t>
+  </si>
+  <si>
+    <t>33727H</t>
+  </si>
+  <si>
+    <t>33728F</t>
+  </si>
+  <si>
+    <t>33729F</t>
+  </si>
+  <si>
+    <t>33729H</t>
+  </si>
+  <si>
+    <t>337333H</t>
+  </si>
+  <si>
+    <t>33731F</t>
+  </si>
+  <si>
+    <t>33731H</t>
+  </si>
+  <si>
+    <t>33732F</t>
+  </si>
+  <si>
+    <t>33732H</t>
+  </si>
+  <si>
+    <t>33733F</t>
+  </si>
+  <si>
+    <t>33733H</t>
+  </si>
+  <si>
+    <t>33734F</t>
+  </si>
+  <si>
+    <t>33734H</t>
+  </si>
+  <si>
+    <t>33735F</t>
+  </si>
+  <si>
+    <t>33735H</t>
+  </si>
+  <si>
+    <t>33736F</t>
+  </si>
+  <si>
+    <t>33736H</t>
+  </si>
+  <si>
+    <t>33737F</t>
+  </si>
+  <si>
+    <t>33738F</t>
+  </si>
+  <si>
+    <t>337N338H</t>
+  </si>
+  <si>
+    <t>337N339F</t>
+  </si>
+  <si>
+    <t>337N339H</t>
+  </si>
+  <si>
+    <t>337N133F</t>
+  </si>
+  <si>
+    <t>337N133H</t>
+  </si>
+  <si>
+    <t>337N11F</t>
+  </si>
+  <si>
+    <t>337N11H</t>
+  </si>
+  <si>
+    <t>337N12F</t>
+  </si>
+  <si>
+    <t>337N12H</t>
+  </si>
+  <si>
+    <t>337N13F</t>
+  </si>
+  <si>
+    <t>337N13H</t>
+  </si>
+  <si>
+    <t>337N14F</t>
+  </si>
+  <si>
+    <t>337N14H</t>
+  </si>
+  <si>
+    <t>337N15F</t>
+  </si>
+  <si>
+    <t>337N15H</t>
+  </si>
+  <si>
+    <t>337N16H</t>
+  </si>
+  <si>
+    <t>337N17H</t>
+  </si>
+  <si>
+    <t>337N18H</t>
+  </si>
+  <si>
+    <t>33817H</t>
+  </si>
+  <si>
+    <t>33818F</t>
+  </si>
+  <si>
+    <t>33818H</t>
+  </si>
+  <si>
+    <t>33819F</t>
+  </si>
+  <si>
+    <t>33819H</t>
+  </si>
+  <si>
+    <t>338233F</t>
+  </si>
+  <si>
+    <t>338233H</t>
+  </si>
+  <si>
+    <t>33821F</t>
+  </si>
+  <si>
+    <t>33821H</t>
+  </si>
+  <si>
+    <t>33822F</t>
+  </si>
+  <si>
+    <t>33822H</t>
+  </si>
+  <si>
+    <t>33823F</t>
+  </si>
+  <si>
+    <t>33823H</t>
+  </si>
+  <si>
+    <t>33824F</t>
+  </si>
+  <si>
+    <t>33824H</t>
+  </si>
+  <si>
+    <t>33825F</t>
+  </si>
+  <si>
+    <t>33825H</t>
+  </si>
+  <si>
+    <t>33826F</t>
+  </si>
+  <si>
+    <t>33827F</t>
+  </si>
+  <si>
+    <t>33827H</t>
+  </si>
+  <si>
+    <t>33828H</t>
+  </si>
+  <si>
+    <t>33829F</t>
+  </si>
+  <si>
+    <t>33829H</t>
+  </si>
+  <si>
+    <t>338333F</t>
+  </si>
+  <si>
+    <t>338333H</t>
+  </si>
+  <si>
+    <t>33831F</t>
+  </si>
+  <si>
+    <t>33831H</t>
+  </si>
+  <si>
+    <t>33832F</t>
+  </si>
+  <si>
+    <t>33832H</t>
+  </si>
+  <si>
+    <t>33833F</t>
+  </si>
+  <si>
+    <t>33833H</t>
+  </si>
+  <si>
+    <t>33834F</t>
+  </si>
+  <si>
+    <t>33834H</t>
+  </si>
+  <si>
+    <t>33836F</t>
+  </si>
+  <si>
+    <t>338N338H</t>
+  </si>
+  <si>
+    <t>338N339F</t>
+  </si>
+  <si>
+    <t>338N339H</t>
+  </si>
+  <si>
+    <t>338N133F</t>
+  </si>
+  <si>
+    <t>338N133H</t>
+  </si>
+  <si>
+    <t>338N11F</t>
+  </si>
+  <si>
+    <t>338N11H</t>
+  </si>
+  <si>
+    <t>338N12F</t>
+  </si>
+  <si>
+    <t>338N12H</t>
+  </si>
+  <si>
+    <t>338N13F</t>
+  </si>
+  <si>
+    <t>338N13H</t>
+  </si>
+  <si>
+    <t>338N14F</t>
+  </si>
+  <si>
+    <t>338N14H</t>
+  </si>
+  <si>
+    <t>338N15F</t>
+  </si>
+  <si>
+    <t>338N15H</t>
+  </si>
+  <si>
+    <t>338N16F</t>
+  </si>
+  <si>
+    <t>338N16H</t>
+  </si>
+  <si>
+    <t>338N17F</t>
+  </si>
+  <si>
+    <t>338N17H</t>
+  </si>
+  <si>
+    <t>338N18F</t>
+  </si>
+  <si>
+    <t>338N18H</t>
+  </si>
+  <si>
+    <t>338N19H</t>
+  </si>
+  <si>
+    <t>33915H</t>
+  </si>
+  <si>
+    <t>33916F</t>
+  </si>
+  <si>
+    <t>33916H</t>
+  </si>
+  <si>
+    <t>33917F</t>
+  </si>
+  <si>
+    <t>33917H</t>
+  </si>
+  <si>
+    <t>33918F</t>
+  </si>
+  <si>
+    <t>33918H</t>
+  </si>
+  <si>
+    <t>33919F</t>
+  </si>
+  <si>
+    <t>33919H</t>
+  </si>
+  <si>
+    <t>339233F</t>
+  </si>
+  <si>
+    <t>339233H</t>
+  </si>
+  <si>
+    <t>33921F</t>
+  </si>
+  <si>
+    <t>33921H</t>
+  </si>
+  <si>
+    <t>33922F</t>
+  </si>
+  <si>
+    <t>33922H</t>
+  </si>
+  <si>
+    <t>33923F</t>
+  </si>
+  <si>
+    <t>33923H</t>
+  </si>
+  <si>
+    <t>33924F</t>
+  </si>
+  <si>
+    <t>33925F</t>
+  </si>
+  <si>
+    <t>33925H</t>
+  </si>
+  <si>
+    <t>33926F</t>
+  </si>
+  <si>
+    <t>33926H</t>
+  </si>
+  <si>
+    <t>33927H</t>
+  </si>
+  <si>
+    <t>33928F</t>
+  </si>
+  <si>
+    <t>33928H</t>
+  </si>
+  <si>
+    <t>33929F</t>
+  </si>
+  <si>
+    <t>33929H</t>
+  </si>
+  <si>
+    <t>339333F</t>
+  </si>
+  <si>
+    <t>339333H</t>
+  </si>
+  <si>
+    <t>33931F</t>
+  </si>
+  <si>
+    <t>33931H</t>
+  </si>
+  <si>
+    <t>33932F</t>
+  </si>
+  <si>
+    <t>33932H</t>
+  </si>
+  <si>
+    <t>33933F</t>
+  </si>
+  <si>
+    <t>33934F</t>
+  </si>
+  <si>
+    <t>339N338H</t>
+  </si>
+  <si>
+    <t>339N339F</t>
+  </si>
+  <si>
+    <t>339N339H</t>
+  </si>
+  <si>
+    <t>339N133F</t>
+  </si>
+  <si>
+    <t>339N133H</t>
+  </si>
+  <si>
+    <t>339N11F</t>
+  </si>
+  <si>
+    <t>339N11H</t>
+  </si>
+  <si>
+    <t>339N12F</t>
+  </si>
+  <si>
+    <t>339N12H</t>
+  </si>
+  <si>
+    <t>339N13F</t>
+  </si>
+  <si>
+    <t>339N13H</t>
+  </si>
+  <si>
+    <t>339N14F</t>
+  </si>
+  <si>
+    <t>339N14H</t>
+  </si>
+  <si>
+    <t>339N15F</t>
+  </si>
+  <si>
+    <t>339N15H</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1094,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1387,7 +1382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1398,7 +1393,7 @@
   <dimension ref="A1:E329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1417,15 +1412,15 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>331</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>332</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1622.8043348730514</v>
@@ -1442,7 +1437,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1637.6938005276468</v>
@@ -1459,7 +1454,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1635.0529398783647</v>
@@ -1476,7 +1471,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1649.9510657869982</v>
@@ -1493,7 +1488,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1647.3102051377164</v>
@@ -1510,7 +1505,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1662.1773502842361</v>
@@ -1527,7 +1522,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1659.5501498889921</v>
@@ -1544,7 +1539,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1674.4359552895498</v>
@@ -1561,7 +1556,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>1671.8037548943062</v>
@@ -1578,7 +1573,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>1686.6882205489014</v>
@@ -1595,7 +1590,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>1684.026379137506</v>
@@ -1612,7 +1607,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>1698.9518255542152</v>
@@ -1629,7 +1624,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>1696.2393623645544</v>
@@ -1646,7 +1641,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>1711.161770305491</v>
@@ -1663,7 +1658,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1708.5149288940954</v>
@@ -1680,7 +1675,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1723.4167150567669</v>
@@ -1697,7 +1692,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>1720.7821941534469</v>
@@ -1714,7 +1709,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>1735.6566598080424</v>
@@ -1731,7 +1726,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>1733.0531196668362</v>
@@ -1748,7 +1743,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>1589.3706355287866</v>
@@ -1765,7 +1760,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>1604.1767999131928</v>
@@ -1782,7 +1777,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>1601.6105802800621</v>
@@ -1799,7 +1794,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>1616.4354049185065</v>
@@ -1816,7 +1811,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>1613.8691852853763</v>
@@ -1833,7 +1828,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>1628.6890099238199</v>
@@ -1850,7 +1845,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>1626.1141300366521</v>
@@ -1867,7 +1862,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>1640.9339546750962</v>
@@ -1884,7 +1879,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>1638.3863952960035</v>
@@ -1901,7 +1896,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>1653.1788994263718</v>
@@ -1918,7 +1913,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>1650.6040195392038</v>
@@ -1935,7 +1930,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>1665.4288441776475</v>
@@ -1952,7 +1947,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>1662.8539642904791</v>
@@ -1969,7 +1964,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>1677.6341479127723</v>
@@ -1986,7 +1981,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>1675.0642680256037</v>
@@ -2003,7 +1998,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>1689.8684708857827</v>
@@ -2020,7 +2015,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>1687.2935909986147</v>
@@ -2037,7 +2032,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>1702.1153771612858</v>
@@ -2054,7 +2049,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>1699.5454972741175</v>
@@ -2071,7 +2066,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>1714.3889821665994</v>
@@ -2088,7 +2083,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>1711.8154420253932</v>
@@ -2105,7 +2100,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>1726.6302666638378</v>
@@ -2122,7 +2117,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>1724.0380662685934</v>
@@ -2139,7 +2134,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>1555.8927503416517</v>
@@ -2156,7 +2151,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>1570.6925749800957</v>
@@ -2173,7 +2168,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>1568.1363553469655</v>
@@ -2190,7 +2185,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>1582.9548402394471</v>
@@ -2207,7 +2202,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>1580.3849603522788</v>
@@ -2224,7 +2219,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>1595.1984452447609</v>
@@ -2241,7 +2236,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>1592.6422256116305</v>
@@ -2258,7 +2253,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>1607.4607105041123</v>
@@ -2275,7 +2270,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>1604.8958306169441</v>
@@ -2292,7 +2287,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>1619.7056552553881</v>
@@ -2309,7 +2304,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>1617.1357753682196</v>
@@ -2326,7 +2321,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>1631.9506000066642</v>
@@ -2343,7 +2338,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>1629.3610791033443</v>
@@ -2360,7 +2355,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>1644.1978652660155</v>
@@ -2377,7 +2372,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>1641.6229853788473</v>
@@ -2394,7 +2389,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>1656.4551305253667</v>
@@ -2411,7 +2406,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>1653.8939108922364</v>
@@ -2428,7 +2423,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>1668.6640945145293</v>
@@ -2445,7 +2440,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>1666.0905543733234</v>
@@ -2462,7 +2457,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>1680.897077741578</v>
@@ -2479,7 +2474,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>1678.3185376003717</v>
@@ -2496,7 +2491,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>1693.1353237630431</v>
@@ -2513,7 +2508,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>1690.5704438758748</v>
@@ -2530,7 +2525,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>1705.3916082602809</v>
@@ -2547,7 +2542,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>1702.8144078650371</v>
@@ -2564,7 +2559,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
         <v>1717.6092325034811</v>
@@ -2581,7 +2576,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>1522.4313715054623</v>
@@ -2598,7 +2593,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>1537.2711961439065</v>
@@ -2615,7 +2610,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
         <v>1534.6539957486627</v>
@@ -2632,7 +2627,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
         <v>1549.5261408951824</v>
@@ -2649,7 +2644,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
         <v>1546.7296584676358</v>
@@ -2666,7 +2661,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
         <v>1561.7660856464586</v>
@@ -2683,7 +2678,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>1559.4520903319712</v>
@@ -2700,7 +2695,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
         <v>1574.0246906517723</v>
@@ -2717,7 +2712,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
         <v>1571.6745221963067</v>
@@ -2734,7 +2729,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
         <v>1586.2646354030478</v>
@@ -2751,7 +2746,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
         <v>1583.6660952618415</v>
@@ -2768,7 +2763,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
         <v>1598.5145801543235</v>
@@ -2785,7 +2780,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>1595.9197002671553</v>
@@ -2802,7 +2797,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
         <v>1610.7335441434861</v>
@@ -2819,7 +2814,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>1608.1300040022797</v>
@@ -2836,7 +2831,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
         <v>1622.9751876245725</v>
@@ -2853,7 +2848,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
         <v>1620.3533462131772</v>
@@ -2870,7 +2865,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
         <v>1635.2220939000754</v>
@@ -2887,7 +2882,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>1632.6348935048316</v>
@@ -2904,7 +2899,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>1647.5203399215407</v>
@@ -2921,7 +2916,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>1644.9304600343719</v>
@@ -2938,7 +2933,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>1659.7133231485893</v>
@@ -2955,7 +2950,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>1657.1297830073831</v>
@@ -2972,7 +2967,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
         <v>1671.9426461216001</v>
@@ -2989,7 +2984,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>1669.3541059803938</v>
@@ -3006,7 +3001,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
         <v>1684.1722318890274</v>
@@ -3023,7 +3018,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>1681.5800314937833</v>
@@ -3040,7 +3035,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>1696.4225356241518</v>
@@ -3057,7 +3052,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
         <v>1489.0001850481385</v>
@@ -3074,7 +3069,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>1504.1604390859827</v>
@@ -3091,7 +3086,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>1501.2226169124738</v>
@@ -3108,7 +3103,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>1516.3828709503182</v>
@@ -3125,7 +3120,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>1513.9450487768092</v>
@@ -3142,7 +3137,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>1528.2392774108694</v>
@@ -3159,7 +3154,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>1525.3014552373602</v>
@@ -3176,7 +3171,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>1540.4617092752046</v>
@@ -3193,7 +3188,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106">
         <v>1538.0238871016959</v>
@@ -3210,7 +3205,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107">
         <v>1553.1841411395401</v>
@@ -3227,7 +3222,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108">
         <v>1550.2294536312365</v>
@@ -3244,7 +3239,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109">
         <v>1565.0342782696807</v>
@@ -3261,7 +3256,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110">
         <v>1562.4830586365504</v>
@@ -3278,7 +3273,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>1577.2792230209564</v>
@@ -3295,7 +3290,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112">
         <v>1574.7416636418636</v>
@@ -3312,7 +3307,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113">
         <v>1589.5378280262701</v>
@@ -3329,7 +3324,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114">
         <v>1587.0016083931396</v>
@@ -3346,7 +3341,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115">
         <v>1601.7034907452432</v>
@@ -3363,7 +3358,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B116">
         <v>1599.1645916201885</v>
@@ -3380,7 +3375,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117">
         <v>1613.9245124480647</v>
@@ -3397,7 +3392,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118">
         <v>1611.3076710366695</v>
@@ -3414,7 +3409,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119">
         <v>1626.2820405018324</v>
@@ -3431,7 +3426,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B120">
         <v>1623.5376157879452</v>
@@ -3448,7 +3443,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B121">
         <v>1638.4766262692599</v>
@@ -3465,7 +3460,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B122">
         <v>1635.8944258740157</v>
@@ -3482,7 +3477,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B123">
         <v>1650.742910766498</v>
@@ -3499,7 +3494,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B124">
         <v>1648.1680308793293</v>
@@ -3516,7 +3511,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B125">
         <v>1662.9585734854709</v>
@@ -3533,7 +3528,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B126">
         <v>1660.3577128361892</v>
@@ -3550,7 +3545,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B127">
         <v>1675.1908387448225</v>
@@ -3567,7 +3562,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B128">
         <v>1672.5530165713137</v>
@@ -3584,7 +3579,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B129">
         <v>1455.715575357312</v>
@@ -3601,7 +3596,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B130">
         <v>1470.0098039913719</v>
@@ -3618,7 +3613,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B131">
         <v>1467.5719818178627</v>
@@ -3635,7 +3630,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B132">
         <v>1482.7322358557071</v>
@@ -3652,7 +3647,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B133">
         <v>1479.7944136821984</v>
@@ -3669,7 +3664,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B134">
         <v>1494.9546677200428</v>
@@ -3686,7 +3681,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B135">
         <v>1492.5168455465337</v>
@@ -3703,7 +3698,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B136">
         <v>1506.8110741805936</v>
@@ -3720,7 +3715,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B137">
         <v>1504.7392774108694</v>
@@ -3737,7 +3732,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B138">
         <v>1519.0335060449293</v>
@@ -3754,7 +3749,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B139">
         <v>1516.5956838714201</v>
@@ -3771,7 +3766,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B140">
         <v>1531.7559379092645</v>
@@ -3788,7 +3783,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B141">
         <v>1528.8181157357558</v>
@@ -3805,7 +3800,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B142">
         <v>1543.8356198661243</v>
@@ -3822,7 +3817,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B143">
         <v>1541.2807399789558</v>
@@ -3839,7 +3834,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B144">
         <v>1556.0855646174</v>
@@ -3856,7 +3851,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B145">
         <v>1553.0571395334164</v>
@@ -3873,7 +3868,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B146">
         <v>1567.891849114638</v>
@@ -3890,7 +3885,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B147">
         <v>1580.4149285311191</v>
@@ -3907,7 +3902,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B148">
         <v>1569.9971855297338</v>
@@ -3924,7 +3919,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B149">
         <v>1592.0746104879786</v>
@@ -3941,7 +3936,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B150">
         <v>1588.5300707168685</v>
@@ -3958,7 +3953,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B151">
         <v>1604.8538372715575</v>
@@ -3975,7 +3970,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B152">
         <v>1602.3382394166915</v>
@@ -3992,7 +3987,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B153">
         <v>1617.1470832930222</v>
@@ -4009,7 +4004,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B154">
         <v>1614.604164930081</v>
@@ -4026,7 +4021,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B155">
         <v>1629.4852331250549</v>
@@ -4043,7 +4038,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B156">
         <v>1626.9373147621136</v>
@@ -4060,7 +4055,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B157">
         <v>1641.7638381303686</v>
@@ -4077,7 +4072,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B158">
         <v>1639.2022595133894</v>
@@ -4094,7 +4089,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B159">
         <v>1653.938520087228</v>
@@ -4111,7 +4106,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B160">
         <v>1652.4701654187959</v>
@@ -4128,7 +4123,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B161">
         <v>1666.1807853465793</v>
@@ -4145,7 +4140,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B162">
         <v>1664.8056099850241</v>
@@ -4162,7 +4157,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B163">
         <v>1677.8991634425759</v>
@@ -4179,7 +4174,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B164">
         <v>1692.3426395784863</v>
@@ -4196,7 +4191,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B165">
         <v>1706.7984362224715</v>
@@ -4213,7 +4208,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B166">
         <v>1720.9177265155113</v>
@@ -4230,7 +4225,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B167">
         <v>1735.0333565545134</v>
@@ -4247,7 +4242,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B168">
         <v>1749.1439865935154</v>
@@ -4264,7 +4259,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B169">
         <v>1763.259616632517</v>
@@ -4281,7 +4276,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B170">
         <v>1777.3789069255567</v>
@@ -4298,7 +4293,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B171">
         <v>1422.0649402627009</v>
@@ -4315,7 +4310,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B172">
         <v>1437.2251943005454</v>
@@ -4332,7 +4327,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B173">
         <v>1434.2873721270362</v>
@@ -4349,7 +4344,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B174">
         <v>1448.5816007610963</v>
@@ -4366,7 +4361,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B175">
         <v>1446.1437785875873</v>
@@ -4383,7 +4378,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B176">
         <v>1461.3040326254318</v>
@@ -4400,7 +4395,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B177">
         <v>1458.3662104519228</v>
@@ -4417,7 +4412,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B178">
         <v>1473.526464489767</v>
@@ -4434,7 +4429,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B179">
         <v>1471.0886423162583</v>
@@ -4451,7 +4446,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B180">
         <v>1486.2488963541027</v>
@@ -4468,7 +4463,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B181">
         <v>1483.3110741805936</v>
@@ -4485,7 +4480,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B182">
         <v>1497.6053028146537</v>
@@ -4502,7 +4497,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B183">
         <v>1495.1674806411447</v>
@@ -4519,7 +4514,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B184">
         <v>1510.3277346789891</v>
@@ -4536,7 +4531,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B185">
         <v>1507.8081175862371</v>
@@ -4553,7 +4548,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B186">
         <v>1522.6352627327569</v>
@@ -4570,7 +4565,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B187">
         <v>1519.5495171406978</v>
@@ -4587,7 +4582,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B188">
         <v>1536.1043160052614</v>
@@ -4604,7 +4599,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B189">
         <v>1554.0983743333745</v>
@@ -4621,7 +4616,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B190">
         <v>1537.3918836450905</v>
@@ -4638,7 +4633,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B191">
         <v>1555.7537880701123</v>
@@ -4655,7 +4650,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B192">
         <v>1571.8418177893132</v>
@@ -4672,7 +4667,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B193">
         <v>1569.136046423373</v>
@@ -4689,7 +4684,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B194">
         <v>1583.7047236947196</v>
@@ -4706,7 +4701,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B195">
         <v>1580.992452883924</v>
@@ -4723,7 +4718,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B196">
         <v>1595.9813671758066</v>
@@ -4740,7 +4735,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B197">
         <v>1593.4035450022971</v>
@@ -4757,7 +4752,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B198">
         <v>1608.2386324351578</v>
@@ -4774,7 +4769,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B199">
         <v>1605.6671500076109</v>
@@ -4791,7 +4786,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B200">
         <v>1620.5717822671909</v>
@@ -4808,7 +4803,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B201">
         <v>1619.1281648043423</v>
@@ -4825,7 +4820,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B202">
         <v>1635.1819571329113</v>
@@ -4842,7 +4837,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B203">
         <v>1631.5885131811378</v>
@@ -4859,7 +4854,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B204">
         <v>1649.6473690191676</v>
@@ -4876,7 +4871,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B205">
         <v>1664.0326658482015</v>
@@ -4893,7 +4888,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B206">
         <v>1644.7343871467651</v>
@@ -4910,7 +4905,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B207">
         <v>1677.829110044333</v>
@@ -4927,7 +4922,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B208">
         <v>1659.1865235367134</v>
@@ -4944,7 +4939,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B209">
         <v>1691.6118939864268</v>
@@ -4961,7 +4956,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B210">
         <v>1673.6386599266616</v>
@@ -4978,7 +4973,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B211">
         <v>1705.7361842794664</v>
@@ -4995,7 +4990,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B212">
         <v>1687.7492899656631</v>
@@ -5012,7 +5007,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B213">
         <v>1719.846814318468</v>
@@ -5029,7 +5024,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B214">
         <v>1701.8735802587028</v>
@@ -5046,7 +5041,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B215">
         <v>1733.9711046115078</v>
@@ -5063,7 +5058,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B216">
         <v>1715.9978705517426</v>
@@ -5080,7 +5075,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B217">
         <v>1748.0817346505096</v>
@@ -5097,7 +5092,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B218">
         <v>1730.1085005907441</v>
@@ -5114,7 +5109,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B219">
         <v>1762.2060249435494</v>
@@ -5131,7 +5126,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B220">
         <v>1744.2277908837841</v>
@@ -5148,7 +5143,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B221">
         <v>1758.3434209227858</v>
@@ -5165,7 +5160,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B222">
         <v>1772.4627112158257</v>
@@ -5182,7 +5177,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B223">
         <v>1786.5870015088651</v>
@@ -5199,7 +5194,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B224">
         <v>1388.4629396482469</v>
@@ -5216,7 +5211,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B225">
         <v>1403.0745592059343</v>
@@ -5233,7 +5228,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B226">
         <v>1400.7352049075985</v>
@@ -5250,7 +5245,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B227">
         <v>1415.7969910702698</v>
@@ -5267,7 +5262,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B228">
         <v>1412.9152458483065</v>
@@ -5284,7 +5279,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B229">
         <v>1427.1533975308207</v>
@@ -5301,7 +5296,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B230">
         <v>1425.1282290753556</v>
@@ -5318,7 +5313,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B231">
         <v>1439.8758293951562</v>
@@ -5335,7 +5330,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B232">
         <v>1436.9380072216472</v>
@@ -5352,7 +5347,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B233">
         <v>1452.0982612594917</v>
@@ -5369,7 +5364,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B234">
         <v>1449.6604390859827</v>
@@ -5386,7 +5381,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B235">
         <v>1464.8206931238271</v>
@@ -5403,7 +5398,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B236">
         <v>1462.0049286639774</v>
@@ -5420,7 +5415,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B237">
         <v>1477.0431249881626</v>
@@ -5437,7 +5432,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B238">
         <v>1474.2971939233289</v>
@@ -5454,7 +5449,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B239">
         <v>1488.8995314487136</v>
@@ -5471,7 +5466,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B240">
         <v>1486.1182344939407</v>
@@ -5488,7 +5483,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B241">
         <v>1502.6293731044666</v>
@@ -5505,7 +5500,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B242">
         <v>1520.7453929568069</v>
@@ -5522,7 +5517,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B243">
         <v>1503.4499792200691</v>
@@ -5539,7 +5534,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B244">
         <v>1521.7562876407064</v>
@@ -5556,7 +5551,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B245">
         <v>1538.7686440338809</v>
@@ -5573,7 +5568,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B246">
         <v>1535.596917679708</v>
@@ -5590,7 +5585,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B247">
         <v>1550.5263833343035</v>
@@ -5607,7 +5602,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B248">
         <v>1547.9298047173247</v>
@@ -5624,7 +5619,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B249">
         <v>1562.635347323466</v>
@@ -5641,7 +5636,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B250">
         <v>1560.1510892145625</v>
@@ -5658,7 +5653,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B251">
         <v>1574.909933090893</v>
@@ -5675,7 +5670,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B252">
         <v>1572.3340724416116</v>
@@ -5692,7 +5687,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B253">
         <v>1587.0703330154499</v>
@@ -5709,7 +5704,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B254">
         <v>1585.6662603793204</v>
@@ -5726,7 +5721,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B255">
         <v>1601.6391681352088</v>
@@ -5743,7 +5738,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B256">
         <v>1598.1375895182296</v>
@@ -5760,7 +5755,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B257">
         <v>1630.6356652337481</v>
@@ -5777,7 +5772,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B258">
         <v>1611.2877455161604</v>
@@ -5794,7 +5789,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B259">
         <v>1644.4321094298793</v>
@@ -5811,7 +5806,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B260">
         <v>1625.7435421601463</v>
@@ -5828,7 +5823,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B261">
         <v>1658.2235536260107</v>
@@ -5845,7 +5840,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B262">
         <v>1640.173358042018</v>
@@ -5862,7 +5857,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B263">
         <v>1672.3391836650123</v>
@@ -5879,7 +5874,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B264">
         <v>1654.2976483350581</v>
@@ -5896,7 +5891,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B265">
         <v>1686.4548137040144</v>
@@ -5913,7 +5908,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B266">
         <v>1668.4219386280977</v>
@@ -5930,7 +5925,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B267">
         <v>1700.574103997054</v>
@@ -5947,7 +5942,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B268">
         <v>1682.5412289211374</v>
@@ -5964,7 +5959,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B269">
         <v>1714.6897340360556</v>
@@ -5981,7 +5976,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B270">
         <v>1696.6568589601391</v>
@@ -5998,7 +5993,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B271">
         <v>1728.8090243290953</v>
@@ -6015,7 +6010,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B272">
         <v>1710.7811492531787</v>
@@ -6032,7 +6027,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B273">
         <v>1742.933314622135</v>
@@ -6049,7 +6044,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B274">
         <v>1724.8917792921807</v>
@@ -6066,7 +6061,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B275">
         <v>1757.0439446611369</v>
@@ -6083,7 +6078,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B276">
         <v>1739.0110695852202</v>
@@ -6100,7 +6095,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B277">
         <v>1771.1162734299494</v>
@@ -6117,7 +6112,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B278">
         <v>1753.1266996242223</v>
@@ -6134,7 +6129,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B279">
         <v>1767.2423296632239</v>
@@ -6151,7 +6146,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B280">
         <v>1355.0547916666956</v>
@@ -6168,7 +6163,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B281">
         <v>1369.6126547809126</v>
@@ -6185,7 +6180,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B282">
         <v>1367.1566979421987</v>
@@ -6202,7 +6197,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B283">
         <v>1382.050086645248</v>
@@ -6219,7 +6214,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B284">
         <v>1379.4432452338531</v>
@@ -6236,7 +6231,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B285">
         <v>1394.298691650562</v>
@@ -6253,7 +6248,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B286">
         <v>1391.7588117633936</v>
@@ -6270,7 +6265,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B287">
         <v>1406.4997133533834</v>
@@ -6287,7 +6282,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B288">
         <v>1403.9471539742908</v>
@@ -6304,7 +6299,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B289">
         <v>1418.7113568344703</v>
@@ -6321,7 +6316,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B290">
         <v>1416.1401372013395</v>
@@ -6338,7 +6333,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B291">
         <v>1430.6700580292163</v>
@@ -6355,7 +6350,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B292">
         <v>1428.2322358557071</v>
@@ -6372,7 +6367,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B293">
         <v>1443.3924898935516</v>
@@ -6389,7 +6384,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B294">
         <v>1440.4546677200428</v>
@@ -6406,7 +6401,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B295">
         <v>1455.614921757887</v>
@@ -6423,7 +6418,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B296">
         <v>1452.0431249881626</v>
@@ -6440,7 +6435,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B297">
         <v>1468.703379026007</v>
@@ -6457,7 +6452,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B298">
         <v>1487.8796101250023</v>
@@ -6474,7 +6469,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B299">
         <v>1469.8503953031232</v>
@@ -6491,7 +6486,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B300">
         <v>1506.4212775294882</v>
@@ -6508,7 +6503,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B301">
         <v>1488.429383215685</v>
@@ -6525,7 +6520,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B302">
         <v>1502.2364234162005</v>
@@ -6542,7 +6537,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B303">
         <v>1517.8838055832557</v>
@@ -6559,7 +6554,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B304">
         <v>1514.4114643569087</v>
@@ -6576,7 +6571,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B305">
         <v>1529.2170069630502</v>
@@ -6593,7 +6588,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B306">
         <v>1526.6823898702978</v>
@@ -6610,7 +6605,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B307">
         <v>1541.4756119683639</v>
@@ -6627,7 +6622,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B308">
         <v>1538.9359948756114</v>
@@ -6644,7 +6639,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B309">
         <v>1553.7368964656016</v>
@@ -6661,7 +6656,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B310">
         <v>1552.281843067359</v>
@@ -6678,7 +6673,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B311">
         <v>1568.3170713313225</v>
@@ -6695,7 +6690,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B312">
         <v>1564.5663068714728</v>
@@ -6712,7 +6707,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B313">
         <v>1582.5672204231626</v>
@@ -6729,7 +6724,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B314">
         <v>1596.9841197925748</v>
@@ -6746,7 +6741,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B315">
         <v>1577.6398603290254</v>
@@ -6763,7 +6758,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B316">
         <v>1610.7755639887066</v>
@@ -6780,7 +6775,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B317">
         <v>1592.0869967189733</v>
@@ -6797,7 +6792,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B318">
         <v>1624.5720081848381</v>
@@ -6814,7 +6809,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B319">
         <v>1606.5354728548832</v>
@@ -6831,7 +6826,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B320">
         <v>1638.6826382238396</v>
@@ -6848,7 +6843,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B321">
         <v>1620.6547631479227</v>
@@ -6865,7 +6860,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B322">
         <v>1652.8069285168795</v>
@@ -6882,7 +6877,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B323">
         <v>1634.7790534409626</v>
@@ -6899,7 +6894,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B324">
         <v>1666.9262188099187</v>
@@ -6916,7 +6911,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B325">
         <v>1648.8896834799641</v>
@@ -6933,7 +6928,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B326">
         <v>1681.0468488489205</v>
@@ -6950,7 +6945,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B327">
         <v>1663.0139737730042</v>
@@ -6967,7 +6962,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B328">
         <v>1695.1661391419607</v>
@@ -6984,7 +6979,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B329">
         <v>1677.1332640660437</v>
